--- a/data/trans_orig/Q19B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Provincia-trans_orig.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,75; 44,08</t>
+          <t>28,55; 44,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,46; 52,39</t>
+          <t>33,84; 52,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,22; 54,99</t>
+          <t>31,56; 55,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,6; 45,39</t>
+          <t>28,92; 46,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,82; 41,21</t>
+          <t>26,85; 40,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,69; 45,73</t>
+          <t>21,75; 49,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,67; 41,9</t>
+          <t>30,29; 41,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,18; 44,06</t>
+          <t>31,72; 44,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,39; 43,89</t>
+          <t>28,12; 43,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,75; 46,57</t>
+          <t>33,45; 46,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,04; 51,19</t>
+          <t>35,89; 50,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,41; 39,55</t>
+          <t>29,01; 39,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,17; 51,61</t>
+          <t>37,12; 52,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,93; 41,8</t>
+          <t>29,98; 42,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,97; 36,58</t>
+          <t>24,73; 36,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,37; 47,35</t>
+          <t>37,31; 47,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,23; 43,37</t>
+          <t>34,31; 44,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,33; 36,0</t>
+          <t>27,92; 35,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,56; 47,37</t>
+          <t>30,49; 46,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,67; 66,67</t>
+          <t>46,76; 66,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,75; 44,14</t>
+          <t>31,53; 43,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,65; 56,27</t>
+          <t>38,92; 55,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,71; 68,6</t>
+          <t>43,81; 67,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,24; 36,15</t>
+          <t>26,54; 36,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,19; 47,8</t>
+          <t>36,8; 48,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,82; 63,89</t>
+          <t>47,71; 63,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,34; 38,13</t>
+          <t>30,45; 38,32</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,11; 42,56</t>
+          <t>30,9; 43,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,53; 61,81</t>
+          <t>36,54; 60,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,11; 51,34</t>
+          <t>34,21; 52,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,5; 50,85</t>
+          <t>34,17; 49,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,29; 55,29</t>
+          <t>36,86; 58,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,19; 47,01</t>
+          <t>31,62; 49,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,05; 43,34</t>
+          <t>33,98; 44,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,83; 53,59</t>
+          <t>38,81; 52,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,93; 45,93</t>
+          <t>34,75; 46,89</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1125,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,67; 63,06</t>
+          <t>36,3; 60,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,8; 53,43</t>
+          <t>36,08; 54,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,65; 48,19</t>
+          <t>24,37; 47,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,02; 65,89</t>
+          <t>36,22; 63,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,03; 63,93</t>
+          <t>33,86; 65,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,89; 35,12</t>
+          <t>20,93; 34,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,96; 58,97</t>
+          <t>40,05; 58,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,69; 52,56</t>
+          <t>37,84; 54,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,08; 36,65</t>
+          <t>23,75; 36,41</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,05; 46,04</t>
+          <t>29,19; 46,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,63; 57,29</t>
+          <t>38,17; 58,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,28; 57,04</t>
+          <t>35,49; 58,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,0; 40,41</t>
+          <t>25,63; 40,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,08; 54,46</t>
+          <t>37,95; 55,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,14; 38,52</t>
+          <t>22,21; 38,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,36; 39,4</t>
+          <t>29,37; 40,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,73; 51,68</t>
+          <t>39,14; 52,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,62; 43,79</t>
+          <t>29,72; 43,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,82; 47,83</t>
+          <t>34,53; 48,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,46; 54,49</t>
+          <t>43,36; 55,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,72; 47,99</t>
+          <t>26,32; 48,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>34,86; 48,67</t>
+          <t>34,07; 48,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,82; 50,48</t>
+          <t>36,76; 50,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,09; 34,13</t>
+          <t>22,13; 34,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>35,55; 45,25</t>
+          <t>36,23; 45,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>41,6; 50,24</t>
+          <t>41,74; 50,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,87; 39,18</t>
+          <t>25,6; 38,95</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,73; 37,48</t>
+          <t>29,81; 37,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,71; 35,7</t>
+          <t>28,05; 35,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,13; 35,28</t>
+          <t>28,14; 35,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,38; 42,61</t>
+          <t>31,09; 43,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,1; 35,38</t>
+          <t>26,18; 34,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>22,62; 28,91</t>
+          <t>22,85; 29,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,59; 38,81</t>
+          <t>31,33; 38,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,85; 33,63</t>
+          <t>27,8; 34,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,04; 30,89</t>
+          <t>25,98; 30,86</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>35,07; 39,78</t>
+          <t>34,89; 39,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>40,54; 45,91</t>
+          <t>40,72; 45,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>33,03; 38,76</t>
+          <t>33,03; 38,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>37,53; 43,15</t>
+          <t>37,6; 43,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>36,85; 42,23</t>
+          <t>36,97; 42,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,65; 30,99</t>
+          <t>26,78; 31,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>36,89; 40,53</t>
+          <t>36,9; 40,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>39,55; 43,51</t>
+          <t>39,6; 43,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,69; 34,12</t>
+          <t>30,52; 33,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q19B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Provincia-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo medio en meses desde la última vez que acudió al dentista, protésico o higienista dental</t>
+          <t>Tiempo medio en meses desde la última consulta al dentista, protésico o higienista dental</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
